--- a/DataAnalysis/Data/output/makro_analysis.xlsx
+++ b/DataAnalysis/Data/output/makro_analysis.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rent Distribution" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Room Size Distribution" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rent Distribution" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Squaremeter Price Distribution" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,279 +449,622 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>281</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>46.49</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91.98</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>137.47</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>182.96</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>228.45</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>92</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>273.94</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>153</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>319.43</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>209</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>364.92</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>423</v>
+        <v>702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>410.41</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>488</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>455.9</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>851</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>501.39</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>288</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>546.88</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>822</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>592.37</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>910</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>637.86</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>899</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>683.35</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>665</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>728.84</v>
+        <v>32</v>
       </c>
       <c r="B18" t="n">
-        <v>473</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>774.33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n">
-        <v>451</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>819.8200000000001</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
-        <v>286</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>865.3100000000001</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>293</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>910.8000000000001</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>151</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>956.2900000000001</v>
+        <v>42</v>
       </c>
       <c r="B23" t="n">
-        <v>241</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1001.78</v>
+        <v>44</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1047.27</v>
+        <v>46</v>
       </c>
       <c r="B25" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1092.76</v>
+        <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1138.25</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1183.74</v>
+        <v>52</v>
       </c>
       <c r="B28" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1229.23</v>
+        <v>54</v>
       </c>
       <c r="B29" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1274.72</v>
+        <v>56</v>
       </c>
       <c r="B30" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1320.21</v>
+        <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1365.7</v>
+        <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1411.19</v>
+        <v>62</v>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1456.68</v>
+        <v>64</v>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1502.17</v>
+        <v>66</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1547.66</v>
+        <v>68</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>70</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>72</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>74</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>76</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B3" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>150</v>
+      </c>
+      <c r="B5" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>200</v>
+      </c>
+      <c r="B6" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>250</v>
+      </c>
+      <c r="B7" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>300</v>
+      </c>
+      <c r="B8" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>350</v>
+      </c>
+      <c r="B9" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>400</v>
+      </c>
+      <c r="B10" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>450</v>
+      </c>
+      <c r="B11" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B12" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>550</v>
+      </c>
+      <c r="B13" t="n">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>600</v>
+      </c>
+      <c r="B14" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>650</v>
+      </c>
+      <c r="B15" t="n">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>700</v>
+      </c>
+      <c r="B16" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>750</v>
+      </c>
+      <c r="B17" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>800</v>
+      </c>
+      <c r="B18" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>850</v>
+      </c>
+      <c r="B19" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>900</v>
+      </c>
+      <c r="B20" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>950</v>
+      </c>
+      <c r="B21" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B24" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B26" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B27" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1450</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1700</v>
       </c>
       <c r="B36" t="n">
         <v>4</v>
@@ -727,47 +1072,47 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1593.15</v>
+        <v>1750</v>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1638.64</v>
+        <v>1800</v>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1684.13</v>
+        <v>1850</v>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1729.62</v>
+        <v>1900</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1775.11</v>
+        <v>1950</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1820.6</v>
+        <v>2000</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -775,55 +1120,438 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1866.09</v>
+        <v>2050</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1911.58</v>
+        <v>2100</v>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1957.07</v>
+        <v>2150</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>24</v>
+      </c>
+      <c r="B14" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>26</v>
+      </c>
+      <c r="B15" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>28</v>
+      </c>
+      <c r="B16" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>30</v>
+      </c>
+      <c r="B17" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32</v>
+      </c>
+      <c r="B18" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34</v>
+      </c>
+      <c r="B19" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36</v>
+      </c>
+      <c r="B20" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38</v>
+      </c>
+      <c r="B21" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42</v>
+      </c>
+      <c r="B23" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44</v>
+      </c>
+      <c r="B24" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>46</v>
+      </c>
+      <c r="B25" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>48</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50</v>
+      </c>
+      <c r="B27" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52</v>
+      </c>
+      <c r="B28" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54</v>
+      </c>
+      <c r="B29" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56</v>
+      </c>
+      <c r="B30" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58</v>
+      </c>
+      <c r="B31" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60</v>
+      </c>
+      <c r="B32" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62</v>
+      </c>
+      <c r="B33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66</v>
+      </c>
+      <c r="B35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>68</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>70</v>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>72</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>74</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>76</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>78</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>80</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>82</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>84</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>86</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2002.56</v>
+        <v>88</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2048.05</v>
+        <v>90</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2093.54</v>
+        <v>92</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2139.03</v>
+        <v>94</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -831,417 +1559,9 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2184.52</v>
+        <v>96</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2230.01</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2275.5</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>2320.99</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>2366.48</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2411.97</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>2457.46</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2502.95</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>2548.44</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2593.93</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>2639.42</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>2684.91</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>2730.4</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>2775.89</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2821.38</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>2866.87</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>2912.36</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>2957.85</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3003.34</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3048.83</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>3094.32</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>3139.81</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>3185.3</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>3230.79</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3276.28</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>3321.77</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>3367.26</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>3412.75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>3458.24</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>3503.73</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>3549.22</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>3594.71</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>3640.2</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>3685.69</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>3731.18</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>3776.67</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3822.16</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>3867.65</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>3913.14</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>3958.63</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>4004.12</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>4049.61</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>4095.1</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>4140.59</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>4186.08</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>4231.570000000001</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>4277.06</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>4322.55</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>4368.04</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>4413.53</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>4459.02</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>4504.51</v>
-      </c>
-      <c r="B101" t="n">
         <v>1</v>
       </c>
     </row>

--- a/DataAnalysis/Data/output/makro_analysis.xlsx
+++ b/DataAnalysis/Data/output/makro_analysis.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Room Size Distribution" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rent Distribution" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Squaremeter Price Distribution" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Comparison" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Room Size Distribution" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rent Distribution" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Squaremeter Price Distribution" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,6 +428,403 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>District</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price_SharedFlats</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price_Adjusted_SharedFlats</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price_HousingMarket</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_SharedFlats_vs_HousingMarket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_SharedFlats_Adjusted_vs_HousingMarket</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_Original_%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_Adjusted_%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Spandau</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29.10507246376812</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19.39894157902159</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.341384152837394</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.76368831093072</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.0575574261842</v>
+      </c>
+      <c r="G2" t="n">
+        <v>211.5713045044573</v>
+      </c>
+      <c r="H2" t="n">
+        <v>107.6666718938999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Reinickendorf</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.47216271058341</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.5278372894166</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.527837289416594</v>
+      </c>
+      <c r="G3" t="n">
+        <v>186.4737765168728</v>
+      </c>
+      <c r="H3" t="n">
+        <v>90.98251767791523</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Marzahn-Hellersdorf</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>29.41176470588235</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.13846153846154</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.3678218974249</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19.04394280845745</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.770639641036642</v>
+      </c>
+      <c r="G4" t="n">
+        <v>183.6831592678832</v>
+      </c>
+      <c r="H4" t="n">
+        <v>65.3043590835438</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lichtenberg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>29.52272727272727</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.49240111467494</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.1179280113382</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.40479926138907</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.374473103336735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>165.5416300826883</v>
+      </c>
+      <c r="H5" t="n">
+        <v>57.33508165222842</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Neukölln</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.72360697795957</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.52667883982897</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.47332116017103</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.196928138130595</v>
+      </c>
+      <c r="G6" t="n">
+        <v>125.563671559585</v>
+      </c>
+      <c r="H6" t="n">
+        <v>45.08608429492519</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tempelhof-Schöneberg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.39035785192639</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.13993599794491</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.86006400205509</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.250421853981479</v>
+      </c>
+      <c r="G7" t="n">
+        <v>130.6437200718351</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43.24917244102677</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Steglitz-Zehlendorf</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.3974358974359</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.23848794563714</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.76151205436286</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.15894795179876</v>
+      </c>
+      <c r="G8" t="n">
+        <v>126.6119826009795</v>
+      </c>
+      <c r="H8" t="n">
+        <v>38.96931411641265</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pankow</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>28.26086956521739</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.23018432637303</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.63586323304723</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.62500633217016</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.594321093325803</v>
+      </c>
+      <c r="G9" t="n">
+        <v>107.2539822541318</v>
+      </c>
+      <c r="H9" t="n">
+        <v>33.69292442147135</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Treptow-Köpenick</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>28.39234449760766</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.02911475531228</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.36322974229537</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.304218578021048</v>
+      </c>
+      <c r="G10" t="n">
+        <v>117.9146091719809</v>
+      </c>
+      <c r="H10" t="n">
+        <v>33.03538773627054</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Charlottenburg-Wilmersdorf</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.48731089112513</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.42457502011024</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.35320275766754</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.062735871014883</v>
+      </c>
+      <c r="G11" t="n">
+        <v>69.12326646970578</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.55883862132975</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Friedrichshain-Kreuzberg</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16.66704354641115</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.43813941562651</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11.06186058437349</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2289041307846418</v>
+      </c>
+      <c r="G12" t="n">
+        <v>67.29387252828509</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.392518490061228</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mitte</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>28.26086956521739</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17.73865032984143</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17.57533810105219</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.6855314641652</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1633122287892448</v>
+      </c>
+      <c r="G13" t="n">
+        <v>60.79844042104367</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9292124444506004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -764,7 +1162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1147,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/DataAnalysis/Data/output/makro_analysis.xlsx
+++ b/DataAnalysis/Data/output/makro_analysis.xlsx
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12">
@@ -930,7 +930,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="13">
@@ -938,7 +938,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14">
@@ -946,7 +946,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15">
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
@@ -962,7 +962,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -970,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18">
@@ -978,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="n">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -986,7 +986,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="n">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="n">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
@@ -1002,7 +1002,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
@@ -1010,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
@@ -1018,7 +1018,7 @@
         <v>42</v>
       </c>
       <c r="B23" t="n">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -1026,7 +1026,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="n">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
@@ -1034,7 +1034,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1042,7 +1042,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -1050,7 +1050,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -1058,7 +1058,7 @@
         <v>52</v>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -1066,7 +1066,7 @@
         <v>54</v>
       </c>
       <c r="B29" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -1082,7 +1082,7 @@
         <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1090,7 +1090,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
@@ -1201,7 +1201,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
@@ -1217,7 +1217,7 @@
         <v>150</v>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1225,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1233,7 +1233,7 @@
         <v>250</v>
       </c>
       <c r="B7" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -1241,7 +1241,7 @@
         <v>300</v>
       </c>
       <c r="B8" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -1249,7 +1249,7 @@
         <v>350</v>
       </c>
       <c r="B9" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1257,7 @@
         <v>400</v>
       </c>
       <c r="B10" t="n">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11">
@@ -1265,7 +1265,7 @@
         <v>450</v>
       </c>
       <c r="B11" t="n">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12">
@@ -1273,7 +1273,7 @@
         <v>500</v>
       </c>
       <c r="B12" t="n">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13">
@@ -1281,7 +1281,7 @@
         <v>550</v>
       </c>
       <c r="B13" t="n">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1289,7 @@
         <v>600</v>
       </c>
       <c r="B14" t="n">
-        <v>856</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15">
@@ -1297,7 +1297,7 @@
         <v>650</v>
       </c>
       <c r="B15" t="n">
-        <v>862</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16">
@@ -1305,7 +1305,7 @@
         <v>700</v>
       </c>
       <c r="B16" t="n">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17">
@@ -1313,7 +1313,7 @@
         <v>750</v>
       </c>
       <c r="B17" t="n">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18">
@@ -1321,7 +1321,7 @@
         <v>800</v>
       </c>
       <c r="B18" t="n">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19">
@@ -1329,7 +1329,7 @@
         <v>850</v>
       </c>
       <c r="B19" t="n">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20">
@@ -1337,7 +1337,7 @@
         <v>900</v>
       </c>
       <c r="B20" t="n">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
@@ -1345,7 +1345,7 @@
         <v>950</v>
       </c>
       <c r="B21" t="n">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
@@ -1353,7 +1353,7 @@
         <v>1000</v>
       </c>
       <c r="B22" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1361,7 +1361,7 @@
         <v>1050</v>
       </c>
       <c r="B23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +1369,7 @@
         <v>1100</v>
       </c>
       <c r="B24" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1377,7 +1377,7 @@
         <v>1150</v>
       </c>
       <c r="B25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1385,7 +1385,7 @@
         <v>1200</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1393,7 @@
         <v>1250</v>
       </c>
       <c r="B27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
@@ -1409,7 +1409,7 @@
         <v>1350</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -1417,7 +1417,7 @@
         <v>1400</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1433,7 +1433,7 @@
         <v>1500</v>
       </c>
       <c r="B32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -1592,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -1600,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1616,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -1624,7 +1624,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
@@ -1632,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10">
@@ -1640,7 +1640,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12">
@@ -1656,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>532</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13">
@@ -1664,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>548</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14">
@@ -1672,7 +1672,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>601</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15">
@@ -1680,7 +1680,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16">
@@ -1688,7 +1688,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17">
@@ -1696,7 +1696,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18">
@@ -1704,7 +1704,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19">
@@ -1712,7 +1712,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="n">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20">
@@ -1728,7 +1728,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22">
@@ -1736,7 +1736,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23">
@@ -1744,7 +1744,7 @@
         <v>42</v>
       </c>
       <c r="B23" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
@@ -1752,7 +1752,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25">
@@ -1776,7 +1776,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28">
@@ -1792,7 +1792,7 @@
         <v>54</v>
       </c>
       <c r="B29" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -1880,7 +1880,7 @@
         <v>76</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">

--- a/DataAnalysis/Data/output/makro_analysis.xlsx
+++ b/DataAnalysis/Data/output/makro_analysis.xlsx
@@ -2,31 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Comparison" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Room Size Distribution" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rent Distribution" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Squaremeter Price Distribution" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Room Size Distribution" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rent Distribution" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Squaremeter Price Distribution" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -40,12 +44,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -58,14 +77,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -428,403 +450,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>District</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Price_SharedFlats</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Price_Adjusted_SharedFlats</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Price_HousingMarket</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Diff_SharedFlats_vs_HousingMarket</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Diff_SharedFlats_Adjusted_vs_HousingMarket</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Diff_Original_%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Diff_Adjusted_%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Spandau</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>29.10507246376812</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.39894157902159</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.341384152837394</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19.76368831093072</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.0575574261842</v>
-      </c>
-      <c r="G2" t="n">
-        <v>211.5713045044573</v>
-      </c>
-      <c r="H2" t="n">
-        <v>107.6666718938999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Reinickendorf</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.47216271058341</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19.5278372894166</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.527837289416594</v>
-      </c>
-      <c r="G3" t="n">
-        <v>186.4737765168728</v>
-      </c>
-      <c r="H3" t="n">
-        <v>90.98251767791523</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Marzahn-Hellersdorf</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>29.41176470588235</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17.13846153846154</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.3678218974249</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19.04394280845745</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.770639641036642</v>
-      </c>
-      <c r="G4" t="n">
-        <v>183.6831592678832</v>
-      </c>
-      <c r="H4" t="n">
-        <v>65.3043590835438</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Lichtenberg</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29.52272727272727</v>
-      </c>
-      <c r="C5" t="n">
-        <v>17.49240111467494</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.1179280113382</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18.40479926138907</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.374473103336735</v>
-      </c>
-      <c r="G5" t="n">
-        <v>165.5416300826883</v>
-      </c>
-      <c r="H5" t="n">
-        <v>57.33508165222842</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Neukölln</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>26</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16.72360697795957</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.52667883982897</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14.47332116017103</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.196928138130595</v>
-      </c>
-      <c r="G6" t="n">
-        <v>125.563671559585</v>
-      </c>
-      <c r="H6" t="n">
-        <v>45.08608429492519</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tempelhof-Schöneberg</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>28</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17.39035785192639</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12.13993599794491</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15.86006400205509</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5.250421853981479</v>
-      </c>
-      <c r="G7" t="n">
-        <v>130.6437200718351</v>
-      </c>
-      <c r="H7" t="n">
-        <v>43.24917244102677</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Steglitz-Zehlendorf</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.3974358974359</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13.23848794563714</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.76151205436286</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.15894795179876</v>
-      </c>
-      <c r="G8" t="n">
-        <v>126.6119826009795</v>
-      </c>
-      <c r="H8" t="n">
-        <v>38.96931411641265</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pankow</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>28.26086956521739</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18.23018432637303</v>
-      </c>
-      <c r="D9" t="n">
-        <v>13.63586323304723</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14.62500633217016</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.594321093325803</v>
-      </c>
-      <c r="G9" t="n">
-        <v>107.2539822541318</v>
-      </c>
-      <c r="H9" t="n">
-        <v>33.69292442147135</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Treptow-Köpenick</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>28.39234449760766</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.33333333333333</v>
-      </c>
-      <c r="D10" t="n">
-        <v>13.02911475531228</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15.36322974229537</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.304218578021048</v>
-      </c>
-      <c r="G10" t="n">
-        <v>117.9146091719809</v>
-      </c>
-      <c r="H10" t="n">
-        <v>33.03538773627054</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Charlottenburg-Wilmersdorf</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="C11" t="n">
-        <v>18.48731089112513</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.42457502011024</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11.35320275766754</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.062735871014883</v>
-      </c>
-      <c r="G11" t="n">
-        <v>69.12326646970578</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12.55883862132975</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Friedrichshain-Kreuzberg</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16.66704354641115</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16.43813941562651</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11.06186058437349</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.2289041307846418</v>
-      </c>
-      <c r="G12" t="n">
-        <v>67.29387252828509</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.392518490061228</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Mitte</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.26086956521739</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17.73865032984143</v>
-      </c>
-      <c r="D13" t="n">
-        <v>17.57533810105219</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.6855314641652</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1633122287892448</v>
-      </c>
-      <c r="G13" t="n">
-        <v>60.79844042104367</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.9292124444506004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -834,12 +459,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Bin</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -1162,7 +787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1177,12 +802,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Bin</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -1193,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>278</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
@@ -1201,7 +826,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
@@ -1209,7 +834,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -1217,7 +842,7 @@
         <v>150</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +850,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1233,7 +858,7 @@
         <v>250</v>
       </c>
       <c r="B7" t="n">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1241,7 +866,7 @@
         <v>300</v>
       </c>
       <c r="B8" t="n">
-        <v>172</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1249,7 +874,7 @@
         <v>350</v>
       </c>
       <c r="B9" t="n">
-        <v>292</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +882,7 @@
         <v>400</v>
       </c>
       <c r="B10" t="n">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
@@ -1265,7 +890,7 @@
         <v>450</v>
       </c>
       <c r="B11" t="n">
-        <v>624</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12">
@@ -1273,7 +898,7 @@
         <v>500</v>
       </c>
       <c r="B12" t="n">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13">
@@ -1281,7 +906,7 @@
         <v>550</v>
       </c>
       <c r="B13" t="n">
-        <v>819</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +914,7 @@
         <v>600</v>
       </c>
       <c r="B14" t="n">
-        <v>841</v>
+        <v>862</v>
       </c>
     </row>
     <row r="15">
@@ -1297,7 +922,7 @@
         <v>650</v>
       </c>
       <c r="B15" t="n">
-        <v>840</v>
+        <v>889</v>
       </c>
     </row>
     <row r="16">
@@ -1305,7 +930,7 @@
         <v>700</v>
       </c>
       <c r="B16" t="n">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17">
@@ -1313,7 +938,7 @@
         <v>750</v>
       </c>
       <c r="B17" t="n">
-        <v>483</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18">
@@ -1321,7 +946,7 @@
         <v>800</v>
       </c>
       <c r="B18" t="n">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19">
@@ -1329,7 +954,7 @@
         <v>850</v>
       </c>
       <c r="B19" t="n">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20">
@@ -1337,7 +962,7 @@
         <v>900</v>
       </c>
       <c r="B20" t="n">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
@@ -1345,7 +970,7 @@
         <v>950</v>
       </c>
       <c r="B21" t="n">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -1353,7 +978,7 @@
         <v>1000</v>
       </c>
       <c r="B22" t="n">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -1361,7 +986,7 @@
         <v>1050</v>
       </c>
       <c r="B23" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +994,7 @@
         <v>1100</v>
       </c>
       <c r="B24" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -1377,7 +1002,7 @@
         <v>1150</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1385,7 +1010,7 @@
         <v>1200</v>
       </c>
       <c r="B26" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1018,7 @@
         <v>1250</v>
       </c>
       <c r="B27" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -1401,7 +1026,7 @@
         <v>1300</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
@@ -1409,7 +1034,7 @@
         <v>1350</v>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -1417,7 +1042,7 @@
         <v>1400</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -1425,7 +1050,7 @@
         <v>1450</v>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1433,7 +1058,7 @@
         <v>1500</v>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
@@ -1441,7 +1066,7 @@
         <v>1550</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1457,7 +1082,7 @@
         <v>1650</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1465,7 +1090,7 @@
         <v>1700</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1098,7 @@
         <v>1750</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1481,7 +1106,7 @@
         <v>1800</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1505,7 +1130,7 @@
         <v>1950</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1513,7 +1138,7 @@
         <v>2000</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1529,7 +1154,7 @@
         <v>2100</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1537,7 +1162,7 @@
         <v>2150</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1560,12 +1185,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Bin</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -1576,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -1584,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -1592,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1600,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1616,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1624,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1632,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>213</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
@@ -1640,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>300</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1273,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12">
@@ -1656,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13">
@@ -1664,7 +1289,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>524</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -1672,7 +1297,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>572</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15">
@@ -1680,7 +1305,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>589</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16">
@@ -1688,7 +1313,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>425</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17">
@@ -1696,7 +1321,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>558</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18">
@@ -1704,7 +1329,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="n">
-        <v>514</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19">
@@ -1712,7 +1337,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="n">
-        <v>421</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20">
@@ -1720,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="n">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21">
@@ -1728,7 +1353,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22">
@@ -1736,7 +1361,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>319</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23">
@@ -1744,7 +1369,7 @@
         <v>42</v>
       </c>
       <c r="B23" t="n">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
@@ -1752,7 +1377,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="n">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="n">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
@@ -1768,7 +1393,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -1776,7 +1401,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28">
@@ -1784,7 +1409,7 @@
         <v>52</v>
       </c>
       <c r="B28" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -1792,7 +1417,7 @@
         <v>54</v>
       </c>
       <c r="B29" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -1800,7 +1425,7 @@
         <v>56</v>
       </c>
       <c r="B30" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -1808,7 +1433,7 @@
         <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -1816,7 +1441,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
@@ -1824,7 +1449,7 @@
         <v>62</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
@@ -1832,7 +1457,7 @@
         <v>64</v>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -1840,7 +1465,7 @@
         <v>66</v>
       </c>
       <c r="B35" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -1848,7 +1473,7 @@
         <v>68</v>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -1856,7 +1481,7 @@
         <v>70</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1864,7 +1489,7 @@
         <v>72</v>
       </c>
       <c r="B38" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1872,7 +1497,7 @@
         <v>74</v>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1880,7 +1505,7 @@
         <v>76</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1888,7 +1513,7 @@
         <v>78</v>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1896,7 +1521,7 @@
         <v>80</v>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1904,7 +1529,7 @@
         <v>82</v>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1912,7 +1537,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1920,7 +1545,7 @@
         <v>86</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1928,7 +1553,7 @@
         <v>88</v>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1952,7 +1577,7 @@
         <v>94</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
